--- a/Testing Web extraction.xlsx
+++ b/Testing Web extraction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jowino\Documents\UiPath\UIPath Introduction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E82FE7F-E83D-4C7E-9B0E-66027C291A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF776FD-4F87-457D-ADB0-0EC31CB3168A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A9ED5E1B-6A75-4960-80C2-742F2D2ECBA8}"/>
   </bookViews>
@@ -36,276 +36,156 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
+  <si>
+    <t>£55.00</t>
+  </si>
+  <si>
+    <t>Nike FC Barcelona 2023/24 Third Kit Children</t>
+  </si>
+  <si>
+    <t>Nike FC Barcelona 2023/24 Home Kit Children</t>
+  </si>
+  <si>
+    <t>£50.00</t>
+  </si>
+  <si>
+    <t>Nike FC Barcelona 2023/24 Third Kit Infant</t>
+  </si>
   <si>
     <t>£80.00</t>
   </si>
   <si>
-    <t>adidas Arsenal FC 2023/24 Home Shirt</t>
-  </si>
-  <si>
-    <t>£110.00</t>
-  </si>
-  <si>
-    <t>adidas Arsenal FC 2023/24 Match Away Shirt</t>
+    <t>Nike FC Barcelona 2023/24 Home Shirt Women's</t>
+  </si>
+  <si>
+    <t>Nike FC Barcelona 2023/24 Away Kit Children</t>
+  </si>
+  <si>
+    <t>Nike FC Barcelona 2023/24 Home Kit Infant</t>
+  </si>
+  <si>
+    <t>Nike FC Barcelona 2023/24 Away Kit Infant</t>
+  </si>
+  <si>
+    <t>Was  £50.00
+Now  £15.00  </t>
+  </si>
+  <si>
+    <t>Nike FC Barcelona 2022/23 Away Kit Infant</t>
+  </si>
+  <si>
+    <t>Was  £55.00
+Now  £40.00  </t>
+  </si>
+  <si>
+    <t>Nike FC Barcelona 2022/23 Fourth Kit Children</t>
+  </si>
+  <si>
+    <t>£45.00</t>
+  </si>
+  <si>
+    <t>Nike FC Barcelona Strike T-Shirt</t>
+  </si>
+  <si>
+    <t>£60.00</t>
+  </si>
+  <si>
+    <t>Nike FC Barcelona Academy Pre Match Shirt</t>
+  </si>
+  <si>
+    <t>Nike FC Barcelona Academy Pre Match T-Shirt</t>
+  </si>
+  <si>
+    <t>£38.00</t>
+  </si>
+  <si>
+    <t>Nike FC Barcelona Strike Short Sleeve Shirt Junior</t>
+  </si>
+  <si>
+    <t>Nike FC Barcelona 2023/24 Third Shirt Junior</t>
+  </si>
+  <si>
+    <t>Nike FC Barcelona 2023/24 Third Shirt</t>
   </si>
   <si>
     <t>£85.00</t>
   </si>
   <si>
-    <t>adidas Arsenal FC 2023/24 Long Sleeve Home Shirt</t>
-  </si>
-  <si>
-    <t>adidas Arsenal FC 2023/24 Away Shirt</t>
-  </si>
-  <si>
-    <t>adidas Arsenal FC 2023/24 Third Shirt</t>
-  </si>
-  <si>
-    <t>adidas Arsenal FC 2023/24 Home Shirt Women's</t>
-  </si>
-  <si>
-    <t>adidas Arsenal FC 2023/24 Away Shirt Women's</t>
-  </si>
-  <si>
-    <t>adidas Arsenal FC 2023/24 Third Shirt Women's</t>
-  </si>
-  <si>
-    <t>£55.00</t>
-  </si>
-  <si>
-    <t>adidas Arsenal FC 2023/24 Home Shirt Junior</t>
-  </si>
-  <si>
-    <t>adidas Arsenal FC 2023/24 Away Shirt Junior</t>
-  </si>
-  <si>
-    <t>adidas Arsenal FC 2023/24 Third Shirt Junior</t>
-  </si>
-  <si>
-    <t>£50.00</t>
-  </si>
-  <si>
-    <t>adidas Arsenal FC 2023/24 Home Kit Children</t>
-  </si>
-  <si>
-    <t>adidas Arsenal FC 2023/24 Away Kit Children</t>
-  </si>
-  <si>
-    <t>adidas Arsenal FC 2023/24 Third Kit Children</t>
+    <t>Nike FC Barcelona 2023/24 Home Long Sleeve Shirt</t>
+  </si>
+  <si>
+    <t>Nike FC Barcelona 2023/24 Home Shirt Junior</t>
+  </si>
+  <si>
+    <t>£28.00</t>
+  </si>
+  <si>
+    <t>Nike FC Barcelona Crest T-Shirt</t>
+  </si>
+  <si>
+    <t>£25.00</t>
+  </si>
+  <si>
+    <t>Nike FC Barcelona Futura T-Shirt Junior</t>
+  </si>
+  <si>
+    <t>Nike FC Barcelona 2023/24 Home Shirt</t>
+  </si>
+  <si>
+    <t>Nike FC Barcelona 2023/24 Away Shirt</t>
+  </si>
+  <si>
+    <t>Nike FC Barcelona 2023/24 Away Shirt Junior</t>
+  </si>
+  <si>
+    <t>Nike FC Barcelona Verbiage T-Shirt</t>
+  </si>
+  <si>
+    <t>Nike FC Barcelona Swoosh T-Shirt</t>
+  </si>
+  <si>
+    <t>Nike FC Barcelona Just Do It T-Shirt</t>
+  </si>
+  <si>
+    <t>£33.00</t>
+  </si>
+  <si>
+    <t>Nike FC Barcelona Futura T-Shirt</t>
   </si>
   <si>
     <t>£40.00</t>
   </si>
   <si>
-    <t>adidas Arsenal FC 2023/24 Home Kit Infant</t>
-  </si>
-  <si>
-    <t>£28.00</t>
-  </si>
-  <si>
-    <t>adidas Arsenal FC 2023/24 Away Shorts Junior</t>
-  </si>
-  <si>
-    <t>adidas Arsenal FC 2023/24 Third Shorts Junior</t>
-  </si>
-  <si>
-    <t>£38.00</t>
-  </si>
-  <si>
-    <t>adidas Arsenal FC 2023/24 Third Shorts</t>
-  </si>
-  <si>
-    <t>£90.00</t>
-  </si>
-  <si>
-    <t>adidas Arsenal 23/24 Long Sleeve Away Jersey</t>
+    <t>Nike FC Barcelona Sportswear Polo Shirt</t>
   </si>
   <si>
     <t>£20.00</t>
   </si>
   <si>
-    <t>adidas Arsenal FC 2023/24 Away Socks Junior</t>
-  </si>
-  <si>
-    <t>adidas Arsenal FC 2023/24 Home Shorts Junior</t>
-  </si>
-  <si>
-    <t>£60.00</t>
-  </si>
-  <si>
-    <t>adidas Arsenal Tiro 23 Training Tracksuit Bottoms</t>
-  </si>
-  <si>
-    <t>adidas Arsenal FC Hoodie Junior</t>
-  </si>
-  <si>
-    <t>adidas Arsenal FC 2023/24 Away Shorts</t>
-  </si>
-  <si>
-    <t>£33.00</t>
-  </si>
-  <si>
-    <t>adidas Arsenal FC Training Shirt Junior</t>
-  </si>
-  <si>
-    <t>adidas Arsenal FC DNA T-Shirt</t>
-  </si>
-  <si>
-    <t>£45.00</t>
-  </si>
-  <si>
-    <t>adidas Arsenal FC Training Top Junior</t>
-  </si>
-  <si>
-    <t>adidas Arsenal FC Training Track Pants Junior</t>
-  </si>
-  <si>
-    <t>£65.00</t>
-  </si>
-  <si>
-    <t>adidas Arsenal FC DNA Full Zip Hoodie</t>
-  </si>
-  <si>
-    <t>adidas Arsenal FC Training Track Pants</t>
-  </si>
-  <si>
-    <t>£21.00</t>
-  </si>
-  <si>
-    <t>adidas Arsenal Club Home Football</t>
-  </si>
-  <si>
-    <t>adidas Arsenal FC 2023/24 Away Socks</t>
-  </si>
-  <si>
-    <t>adidas Arsenal FC Training Shirt</t>
-  </si>
-  <si>
-    <t>adidas Arsenal FC Hoodie</t>
-  </si>
-  <si>
-    <t>adidas Arsenal FC Training Top</t>
-  </si>
-  <si>
-    <t>adidas Arsenal FC Training Polo Shirt</t>
-  </si>
-  <si>
-    <t>adidas Arsenal FC 2023/24 Home Shorts</t>
-  </si>
-  <si>
-    <t>adidas Arsenal Hoodie</t>
-  </si>
-  <si>
-    <t>adidas Arsenal FC Backpack</t>
-  </si>
-  <si>
-    <t>adidas Arsenal T-Shirt</t>
-  </si>
-  <si>
-    <t>adidas Arsenal Duffel Bag</t>
-  </si>
-  <si>
-    <t>adidas Arsenal 23/24 Away Authentic Jersey Womens</t>
-  </si>
-  <si>
-    <t>adidas Arsenal FC Training Shorts</t>
-  </si>
-  <si>
-    <t>adidas Arsenal Designed for Gameday T-Shirt</t>
-  </si>
-  <si>
-    <t>£25.00</t>
-  </si>
-  <si>
-    <t>12th Territory Gunners Subbuteo Line-up T-Shirt</t>
-  </si>
-  <si>
-    <t>12th Territory Gunners Retro T-Shirt</t>
-  </si>
-  <si>
-    <t>£120.00</t>
-  </si>
-  <si>
-    <t>adidas Arsenal Anthem Jacket</t>
-  </si>
-  <si>
-    <t>£75.00</t>
-  </si>
-  <si>
-    <t>adidas Arsenal Anthem Pants</t>
-  </si>
-  <si>
-    <t>£70.00</t>
-  </si>
-  <si>
-    <t>adidas Arsenal Tiro 23 Training Top</t>
-  </si>
-  <si>
-    <t>£180.00</t>
-  </si>
-  <si>
-    <t>adidas Arsenal Condivo 23 Stadium Parka</t>
-  </si>
-  <si>
-    <t>adidas Arsenal Tracksuit Bottoms</t>
-  </si>
-  <si>
-    <t>£100.00</t>
-  </si>
-  <si>
-    <t>adidas Arsenal FC Pre Match Shirt</t>
-  </si>
-  <si>
-    <t>adidas Arsenal FC DNA Graphic T-Shirt</t>
-  </si>
-  <si>
-    <t>adidas Arsenal Designed for Gameday Tracksuit Bottoms</t>
-  </si>
-  <si>
-    <t>adidas Arsenal Designed for Gameday Full-Zip Hoodie</t>
-  </si>
-  <si>
-    <t>adidas Arsenal FC Presentation Track Pants</t>
-  </si>
-  <si>
-    <t>adidas Arsenal Tiro 23 All-Weather Jacket</t>
-  </si>
-  <si>
-    <t>adidas Arsenal FC Pre Match Shirt Junior</t>
-  </si>
-  <si>
-    <t>adidas Arsenal FC Presentation Jacket</t>
-  </si>
-  <si>
-    <t>Official Team Arsenal FC Thermal 500ml Bottle</t>
-  </si>
-  <si>
-    <t>£9.00</t>
-  </si>
-  <si>
-    <t>Official Team Arsenal FC 750ml Water Bottle</t>
-  </si>
-  <si>
-    <t>adidas Arsenal FC Baseball Cap</t>
-  </si>
-  <si>
-    <t>£15.00</t>
-  </si>
-  <si>
-    <t>Official Team Arsenal FC UV Bottle</t>
-  </si>
-  <si>
-    <t>£12.00</t>
-  </si>
-  <si>
-    <t>Official Team Arsenal FC Fade 750ml Water Bottle</t>
-  </si>
-  <si>
-    <t>adidas Arsenal FC 2023/34 Home Socks</t>
-  </si>
-  <si>
-    <t>adidas Arsenal Scarf</t>
+    <t>Official Team FC Barcelona Short Sleeve T-Shirt</t>
+  </si>
+  <si>
+    <t>£125.00</t>
+  </si>
+  <si>
+    <t>Nike FC Barcelona 2023/24 Match Home Shirt</t>
+  </si>
+  <si>
+    <t>Official Team FC Barcelona Crest T-Shirt</t>
+  </si>
+  <si>
+    <t>Nike FC Barcelona Strike T-Shirt Women's</t>
+  </si>
+  <si>
+    <t>Official Team FC Barcelona 1899 T-Shirt</t>
+  </si>
+  <si>
+    <t>Official Team FC Barcelona Blaugrana T-Shirt</t>
+  </si>
+  <si>
+    <t>Was  £28.00
+Now  £15.00  </t>
   </si>
 </sst>
 </file>
@@ -657,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82136830-8F53-4321-BF47-CCE4E75DF821}">
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -679,23 +559,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -711,7 +591,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -719,7 +599,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -727,522 +607,242 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>19</v>
-      </c>
-      <c r="B44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>64</v>
-      </c>
-      <c r="B48" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>31</v>
-      </c>
-      <c r="B51" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>71</v>
-      </c>
-      <c r="B52" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>31</v>
-      </c>
-      <c r="B53" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>66</v>
-      </c>
-      <c r="B54" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>21</v>
-      </c>
-      <c r="B55" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>41</v>
-      </c>
-      <c r="B56" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>71</v>
-      </c>
-      <c r="B57" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>66</v>
-      </c>
-      <c r="B58" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>11</v>
-      </c>
-      <c r="B60" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>11</v>
-      </c>
-      <c r="B61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>41</v>
-      </c>
-      <c r="B62" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>31</v>
-      </c>
-      <c r="B63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>24</v>
-      </c>
-      <c r="B64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>28</v>
-      </c>
-      <c r="B66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>81</v>
-      </c>
-      <c r="B67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>28</v>
-      </c>
-      <c r="B68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>84</v>
-      </c>
-      <c r="B69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>86</v>
-      </c>
-      <c r="B70" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>28</v>
-      </c>
-      <c r="B71" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>28</v>
-      </c>
-      <c r="B72" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
